--- a/assets/files/us_historical_probs_3_29_24.xlsx
+++ b/assets/files/us_historical_probs_3_29_24.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpiger/Dropbox/Work/WebSite/BusinessCycleDates/National/2024/March 29, 2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05DE7CDB-8390-5843-8869-8F66D7074042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BDB030-03D6-784E-AE0F-A2A142D7974C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="us_historical_probs_3_29_24" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -885,7 +881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B681"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5961,7 +5957,7 @@
         <v>43891</v>
       </c>
       <c r="B634" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
@@ -5969,7 +5965,7 @@
         <v>43922</v>
       </c>
       <c r="B635" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
